--- a/员工归档/工作输出/杨晨/开年课程安排表.xlsx
+++ b/员工归档/工作输出/杨晨/开年课程安排表.xlsx
@@ -11,19 +11,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>2017年春~夏季课程安排表</t>
   </si>
   <si>
-    <t>时间：2017.2.13`2017.6.18</t>
-  </si>
-  <si>
     <t>年级段</t>
   </si>
   <si>
@@ -48,101 +45,119 @@
     <t>总金额</t>
   </si>
   <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>小学作业辅导</t>
+  </si>
+  <si>
+    <t>1年级</t>
+  </si>
+  <si>
+    <t>2年级</t>
+  </si>
+  <si>
+    <t>3年级</t>
+  </si>
+  <si>
+    <t>4年级</t>
+  </si>
+  <si>
+    <t>5年级</t>
+  </si>
+  <si>
+    <t>6年级</t>
+  </si>
+  <si>
+    <t>小学补课</t>
+  </si>
+  <si>
+    <t>初中</t>
+  </si>
+  <si>
+    <t>7年级</t>
+  </si>
+  <si>
+    <t>四门6400元</t>
+  </si>
+  <si>
+    <t>8年级</t>
+  </si>
+  <si>
+    <t>9年级</t>
+  </si>
+  <si>
+    <t>高中</t>
+  </si>
+  <si>
+    <t>高一</t>
+  </si>
+  <si>
+    <t>四门2880元</t>
+  </si>
+  <si>
+    <t>高二</t>
+  </si>
+  <si>
+    <t>星期一~星期五16:30~18:50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                 作业辅导时间：2017.2.20`2017.6.20                补课时间：2017.2.20`2017.6.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高三</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200元/月/科</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期六8:30~17:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120元/月/科</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>语文</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>化学</t>
-  </si>
-  <si>
-    <t>地理</t>
-  </si>
-  <si>
-    <t>生物</t>
-  </si>
-  <si>
-    <t>小学作业辅导</t>
-  </si>
-  <si>
-    <t>1年级</t>
-  </si>
-  <si>
-    <t>星期一~星期五16:00~18:00</t>
-  </si>
-  <si>
-    <t>两门1900元</t>
-  </si>
-  <si>
-    <t>2年级</t>
-  </si>
-  <si>
-    <t>3年级</t>
-  </si>
-  <si>
-    <t>4年级</t>
-  </si>
-  <si>
-    <t>5年级</t>
-  </si>
-  <si>
-    <t>6年级</t>
-  </si>
-  <si>
-    <t>小学补课</t>
-  </si>
-  <si>
-    <t>星期六~星期天8:30~17:30</t>
-  </si>
-  <si>
-    <t>两门2460元</t>
-  </si>
-  <si>
-    <t>初中</t>
-  </si>
-  <si>
-    <t>7年级</t>
-  </si>
-  <si>
-    <t>四门6400元</t>
-  </si>
-  <si>
-    <t>8年级</t>
-  </si>
-  <si>
-    <t>9年级</t>
-  </si>
-  <si>
-    <t>高中</t>
-  </si>
-  <si>
-    <t>高一</t>
-  </si>
-  <si>
-    <t>四门2880元</t>
-  </si>
-  <si>
-    <t>高二</t>
-  </si>
-  <si>
-    <t>高三</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学补课和作业辅导绑一起收费，一科320元/月，两科540元/月，三科760元/月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +192,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -204,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -282,6 +305,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -289,7 +343,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -298,18 +354,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -318,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,34 +399,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -399,6 +452,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,186 +776,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
     <col min="4" max="17" width="5.625" style="1" customWidth="1"/>
     <col min="18" max="25" width="6.375" style="1" customWidth="1"/>
     <col min="26" max="26" width="7.375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="26.75" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17" style="1" customWidth="1"/>
+    <col min="28" max="28" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
+    <row r="1" spans="1:28" ht="30" customHeight="1">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="32"/>
     </row>
-    <row r="2" spans="1:27" ht="30" customHeight="1">
-      <c r="AA2" s="11" t="s">
+    <row r="2" spans="1:28" ht="30" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3" spans="1:28" ht="30" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="33" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" ht="30" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="14" t="s">
+    <row r="4" spans="1:28" ht="30" customHeight="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="18" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="34"/>
     </row>
-    <row r="4" spans="1:27" ht="30" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
+    <row r="5" spans="1:28" ht="30" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA4" s="20"/>
-    </row>
-    <row r="5" spans="1:27" ht="30" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>20</v>
+      <c r="C5" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -889,77 +1002,76 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="6">
-        <f t="shared" ref="K5:K10" si="0">D5*R5</f>
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" ref="L5:L10" si="1">E5*R5</f>
+        <f t="shared" ref="L5:L6" si="0">E5*R5</f>
         <v>0</v>
       </c>
       <c r="M5" s="6">
-        <f t="shared" ref="M5:M10" si="2">F5*R5</f>
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" ref="N5:N10" si="3">G5*R5</f>
+        <f t="shared" ref="N5:N10" si="1">G5*R5</f>
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" ref="O5:O10" si="4">H5*R5</f>
+        <f t="shared" ref="O5:O10" si="2">H5*R5</f>
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" ref="P5:P10" si="5">I5*R5</f>
+        <f t="shared" ref="P5:P10" si="3">I5*R5</f>
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" ref="Q5:Q10" si="6">J5*R5</f>
+        <f t="shared" ref="Q5:Q10" si="4">J5*R5</f>
         <v>0</v>
       </c>
       <c r="R5" s="2">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="S5" s="2">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="T5" s="9">
-        <f t="shared" ref="T5:T10" si="7">(S5/30)*K5</f>
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="U5" s="10">
-        <f t="shared" ref="U5:Z5" si="8">(500/30)*L5</f>
+        <f t="shared" ref="U5:Z5" si="5">(500/30)*L5</f>
         <v>0</v>
       </c>
       <c r="V5" s="9">
-        <f t="shared" si="8"/>
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="W5" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X5" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="35" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="30" customHeight="1">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:28" ht="30" customHeight="1">
+      <c r="A6" s="21"/>
       <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="22"/>
+        <v>18</v>
+      </c>
+      <c r="C6" s="24"/>
       <c r="D6" s="3">
         <v>1</v>
       </c>
@@ -972,77 +1084,74 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="6">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>20</v>
+      </c>
+      <c r="N6" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="6">
+      <c r="O6" s="2">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P6" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="11">
+        <v>20</v>
+      </c>
+      <c r="S6" s="11">
+        <v>10</v>
+      </c>
+      <c r="T6" s="9">
+        <v>200</v>
+      </c>
+      <c r="U6" s="10">
+        <f t="shared" ref="U6:Z6" si="6">(500/30)*L6</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>200</v>
+      </c>
+      <c r="W6" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R6" s="2">
-        <v>57</v>
-      </c>
-      <c r="S6" s="2">
-        <v>500</v>
-      </c>
-      <c r="T6" s="9">
-        <f t="shared" si="7"/>
-        <v>950</v>
-      </c>
-      <c r="U6" s="10">
-        <f t="shared" ref="U6:Z6" si="9">(500/30)*L6</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="9">
-        <f t="shared" si="9"/>
-        <v>950</v>
-      </c>
-      <c r="W6" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="X6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" s="36"/>
     </row>
-    <row r="7" spans="1:27" ht="30" customHeight="1">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:28" ht="30" customHeight="1">
+      <c r="A7" s="21"/>
       <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="22"/>
+        <v>19</v>
+      </c>
+      <c r="C7" s="24"/>
       <c r="D7" s="3">
         <v>1</v>
       </c>
@@ -1057,77 +1166,72 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="6">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="L7" s="7">
+        <v>20</v>
+      </c>
+      <c r="L7" s="6">
+        <v>20</v>
+      </c>
+      <c r="M7" s="6">
+        <v>20</v>
+      </c>
+      <c r="N7" s="2">
         <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P7" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>57</v>
-      </c>
-      <c r="S7" s="2">
-        <v>500</v>
+      <c r="R7" s="11">
+        <v>20</v>
+      </c>
+      <c r="S7" s="11">
+        <v>10</v>
       </c>
       <c r="T7" s="9">
+        <v>200</v>
+      </c>
+      <c r="U7" s="9">
+        <v>200</v>
+      </c>
+      <c r="V7" s="9">
+        <v>200</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" ref="W7:Z7" si="7">(500/30)*N7</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
         <f t="shared" si="7"/>
-        <v>950</v>
-      </c>
-      <c r="U7" s="9">
-        <f t="shared" ref="U7:Z7" si="10">(500/30)*L7</f>
-        <v>950</v>
-      </c>
-      <c r="V7" s="9">
-        <f t="shared" si="10"/>
-        <v>950</v>
-      </c>
-      <c r="W7" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB7" s="36"/>
     </row>
-    <row r="8" spans="1:27" ht="30" customHeight="1">
-      <c r="A8" s="17"/>
+    <row r="8" spans="1:28" ht="30" customHeight="1">
+      <c r="A8" s="21"/>
       <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="24"/>
       <c r="D8" s="3">
         <v>1</v>
       </c>
@@ -1142,77 +1246,72 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="6">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="L8" s="7">
+        <v>20</v>
+      </c>
+      <c r="L8" s="6">
+        <v>20</v>
+      </c>
+      <c r="M8" s="6">
+        <v>20</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P8" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>57</v>
-      </c>
-      <c r="S8" s="2">
-        <v>500</v>
+      <c r="R8" s="11">
+        <v>20</v>
+      </c>
+      <c r="S8" s="11">
+        <v>10</v>
       </c>
       <c r="T8" s="9">
-        <f t="shared" si="7"/>
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="U8" s="9">
-        <f t="shared" ref="U8:Z8" si="11">(500/30)*L8</f>
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="V8" s="9">
-        <f t="shared" si="11"/>
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="W8" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="W8:Z8" si="8">(500/30)*N8</f>
         <v>0</v>
       </c>
       <c r="X8" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB8" s="36"/>
+    </row>
+    <row r="9" spans="1:28" ht="30" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="30" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="3">
         <v>1</v>
       </c>
@@ -1227,77 +1326,72 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="6">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="L9" s="7">
+        <v>20</v>
+      </c>
+      <c r="L9" s="6">
+        <v>20</v>
+      </c>
+      <c r="M9" s="6">
+        <v>20</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P9" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>57</v>
-      </c>
-      <c r="S9" s="2">
-        <v>500</v>
+      <c r="R9" s="11">
+        <v>20</v>
+      </c>
+      <c r="S9" s="11">
+        <v>10</v>
       </c>
       <c r="T9" s="9">
-        <f t="shared" si="7"/>
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="U9" s="9">
-        <f t="shared" ref="U9:Z9" si="12">(500/30)*L9</f>
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="V9" s="9">
-        <f t="shared" si="12"/>
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="W9:Z9" si="9">(500/30)*N9</f>
         <v>0</v>
       </c>
       <c r="X9" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB9" s="36"/>
     </row>
-    <row r="10" spans="1:27" ht="30" customHeight="1">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:28" ht="30" customHeight="1">
+      <c r="A10" s="21"/>
       <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="C10" s="25"/>
       <c r="D10" s="3">
         <v>1</v>
       </c>
@@ -1312,80 +1406,75 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="6">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="L10" s="7">
+        <v>20</v>
+      </c>
+      <c r="L10" s="6">
+        <v>20</v>
+      </c>
+      <c r="M10" s="6">
+        <v>20</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P10" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>57</v>
-      </c>
-      <c r="S10" s="2">
-        <v>500</v>
+      <c r="R10" s="11">
+        <v>20</v>
+      </c>
+      <c r="S10" s="11">
+        <v>10</v>
       </c>
       <c r="T10" s="9">
-        <f t="shared" si="7"/>
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="U10" s="9">
-        <f t="shared" ref="U10:Z10" si="13">(500/30)*L10</f>
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="V10" s="9">
-        <f t="shared" si="13"/>
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="W10" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="W10:Z10" si="10">(500/30)*N10</f>
         <v>0</v>
       </c>
       <c r="X10" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>21</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB10" s="36"/>
     </row>
-    <row r="11" spans="1:27" ht="30" customHeight="1">
-      <c r="A11" s="18" t="s">
-        <v>27</v>
+    <row r="11" spans="1:28" ht="30" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
@@ -1399,39 +1488,39 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="6">
-        <f t="shared" ref="K11:K16" si="14">D11*R11</f>
-        <v>82</v>
+        <f t="shared" ref="K11:K16" si="11">D11*R11</f>
+        <v>8</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6">
-        <f t="shared" ref="M11:M16" si="15">F11*R11</f>
-        <v>82</v>
+        <f t="shared" ref="M11:M16" si="12">F11*R11</f>
+        <v>8</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11:N16" si="16">G11*R11</f>
+        <f t="shared" ref="N11:N16" si="13">G11*R11</f>
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" ref="O11:O16" si="17">H11*R11</f>
+        <f t="shared" ref="O11:O16" si="14">H11*R11</f>
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" ref="P11:P16" si="18">I11*R11</f>
+        <f t="shared" ref="P11:P16" si="15">I11*R11</f>
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" ref="Q11:Q16" si="19">J11*R11</f>
+        <f t="shared" ref="Q11:Q16" si="16">J11*R11</f>
         <v>0</v>
       </c>
       <c r="R11" s="2">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="S11" s="2">
         <v>15</v>
       </c>
       <c r="T11" s="9">
         <f>S11*K11</f>
-        <v>1230</v>
+        <v>120</v>
       </c>
       <c r="U11" s="10">
         <f>L11*S11</f>
@@ -1439,7 +1528,7 @@
       </c>
       <c r="V11" s="9">
         <f>S11*M11</f>
-        <v>1230</v>
+        <v>120</v>
       </c>
       <c r="W11" s="2">
         <f>S11*N11</f>
@@ -1457,16 +1546,17 @@
         <f>S11*Q11</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB11" s="36"/>
     </row>
-    <row r="12" spans="1:27" ht="30" customHeight="1">
-      <c r="A12" s="19"/>
+    <row r="12" spans="1:28" ht="30" customHeight="1">
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="22"/>
+        <v>18</v>
+      </c>
+      <c r="C12" s="24"/>
       <c r="D12" s="3">
         <v>2</v>
       </c>
@@ -1479,74 +1569,75 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="6">
-        <f t="shared" si="14"/>
-        <v>82</v>
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
         <f t="shared" si="15"/>
-        <v>82</v>
-      </c>
-      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O12" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="R12" s="2">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="S12" s="2">
         <v>15</v>
       </c>
       <c r="T12" s="9">
-        <f t="shared" ref="T12:T22" si="20">S12*K12</f>
-        <v>1230</v>
+        <f t="shared" ref="T12:T22" si="17">S12*K12</f>
+        <v>120</v>
       </c>
       <c r="U12" s="10">
-        <f t="shared" ref="U12:U22" si="21">L12*S12</f>
+        <f t="shared" ref="U12:U22" si="18">L12*S12</f>
         <v>0</v>
       </c>
       <c r="V12" s="9">
-        <f t="shared" ref="V12:V22" si="22">S12*M12</f>
-        <v>1230</v>
+        <f t="shared" ref="V12:V22" si="19">S12*M12</f>
+        <v>120</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" ref="W12:W22" si="23">S12*N12</f>
+        <f t="shared" ref="W12:W22" si="20">S12*N12</f>
         <v>0</v>
       </c>
       <c r="X12" s="2">
-        <f t="shared" ref="X12:X22" si="24">S12*O12</f>
+        <f t="shared" ref="X12:X22" si="21">S12*O12</f>
         <v>0</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" ref="Y12:Y22" si="25">S12*P12</f>
+        <f t="shared" ref="Y12:Y22" si="22">S12*P12</f>
         <v>0</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" ref="Z12:Z22" si="26">S12*Q12</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>29</v>
-      </c>
+        <f t="shared" ref="Z12:Z22" si="23">S12*Q12</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB12" s="36"/>
     </row>
-    <row r="13" spans="1:27" ht="30" customHeight="1">
-      <c r="A13" s="19"/>
+    <row r="13" spans="1:28" ht="30" customHeight="1">
+      <c r="A13" s="17"/>
       <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="22"/>
+        <v>19</v>
+      </c>
+      <c r="C13" s="24"/>
       <c r="D13" s="3">
         <v>2</v>
       </c>
@@ -1561,77 +1652,78 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="6">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" ref="L13:L16" si="24">E13*R13</f>
+        <v>8</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
         <f t="shared" si="14"/>
-        <v>82</v>
-      </c>
-      <c r="L13" s="7">
-        <f t="shared" ref="L13:L16" si="27">E13*R13</f>
-        <v>82</v>
-      </c>
-      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
         <f t="shared" si="15"/>
-        <v>82</v>
-      </c>
-      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O13" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="R13" s="2">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="S13" s="2">
         <v>15</v>
       </c>
       <c r="T13" s="9">
+        <f t="shared" si="17"/>
+        <v>120</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="18"/>
+        <v>120</v>
+      </c>
+      <c r="V13" s="9">
+        <f t="shared" si="19"/>
+        <v>120</v>
+      </c>
+      <c r="W13" s="2">
         <f t="shared" si="20"/>
-        <v>1230</v>
-      </c>
-      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
         <f t="shared" si="21"/>
-        <v>1230</v>
-      </c>
-      <c r="V13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
         <f t="shared" si="22"/>
-        <v>1230</v>
-      </c>
-      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X13" s="2">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="2">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB13" s="36"/>
     </row>
-    <row r="14" spans="1:27" ht="30" customHeight="1">
-      <c r="A14" s="19"/>
+    <row r="14" spans="1:28" ht="30" customHeight="1">
+      <c r="A14" s="17"/>
       <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="C14" s="24"/>
       <c r="D14" s="3">
         <v>2</v>
       </c>
@@ -1646,77 +1738,78 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="6">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
         <f t="shared" si="14"/>
-        <v>82</v>
-      </c>
-      <c r="L14" s="7">
-        <f t="shared" si="27"/>
-        <v>82</v>
-      </c>
-      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
         <f t="shared" si="15"/>
-        <v>82</v>
-      </c>
-      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O14" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="R14" s="2">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="S14" s="2">
         <v>15</v>
       </c>
       <c r="T14" s="9">
+        <f t="shared" si="17"/>
+        <v>120</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="18"/>
+        <v>120</v>
+      </c>
+      <c r="V14" s="9">
+        <f t="shared" si="19"/>
+        <v>120</v>
+      </c>
+      <c r="W14" s="2">
         <f t="shared" si="20"/>
-        <v>1230</v>
-      </c>
-      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
         <f t="shared" si="21"/>
-        <v>1230</v>
-      </c>
-      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
         <f t="shared" si="22"/>
-        <v>1230</v>
-      </c>
-      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X14" s="2">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="2">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="2">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB14" s="36"/>
     </row>
-    <row r="15" spans="1:27" ht="30" customHeight="1">
-      <c r="A15" s="19"/>
+    <row r="15" spans="1:28" ht="30" customHeight="1">
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="24"/>
       <c r="D15" s="3">
         <v>2</v>
       </c>
@@ -1731,77 +1824,78 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="6">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
         <f t="shared" si="14"/>
-        <v>82</v>
-      </c>
-      <c r="L15" s="7">
-        <f t="shared" si="27"/>
-        <v>82</v>
-      </c>
-      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
         <f t="shared" si="15"/>
-        <v>82</v>
-      </c>
-      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O15" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="R15" s="2">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="S15" s="2">
         <v>15</v>
       </c>
       <c r="T15" s="9">
+        <f t="shared" si="17"/>
+        <v>120</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="18"/>
+        <v>120</v>
+      </c>
+      <c r="V15" s="9">
+        <f t="shared" si="19"/>
+        <v>120</v>
+      </c>
+      <c r="W15" s="2">
         <f t="shared" si="20"/>
-        <v>1230</v>
-      </c>
-      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
         <f t="shared" si="21"/>
-        <v>1230</v>
-      </c>
-      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
         <f t="shared" si="22"/>
-        <v>1230</v>
-      </c>
-      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X15" s="2">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="2">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="2">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB15" s="36"/>
     </row>
-    <row r="16" spans="1:27" ht="30" customHeight="1">
-      <c r="A16" s="20"/>
+    <row r="16" spans="1:28" ht="30" customHeight="1">
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="C16" s="24"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
@@ -1816,80 +1910,81 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="6">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
         <f t="shared" si="14"/>
-        <v>82</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" si="27"/>
-        <v>82</v>
-      </c>
-      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
         <f t="shared" si="15"/>
-        <v>82</v>
-      </c>
-      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O16" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="R16" s="2">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="S16" s="2">
         <v>15</v>
       </c>
       <c r="T16" s="9">
+        <f t="shared" si="17"/>
+        <v>120</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="18"/>
+        <v>120</v>
+      </c>
+      <c r="V16" s="9">
+        <f t="shared" si="19"/>
+        <v>120</v>
+      </c>
+      <c r="W16" s="2">
         <f t="shared" si="20"/>
-        <v>1230</v>
-      </c>
-      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
         <f t="shared" si="21"/>
-        <v>1230</v>
-      </c>
-      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
         <f t="shared" si="22"/>
-        <v>1230</v>
-      </c>
-      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X16" s="2">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB16" s="37"/>
     </row>
-    <row r="17" spans="1:27" ht="30" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>30</v>
+    <row r="17" spans="1:28" ht="30" customHeight="1">
+      <c r="A17" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="3">
@@ -1907,77 +2002,78 @@
         <v>2</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" ref="K17:K22" si="28">D17*R17</f>
+        <f t="shared" ref="K17:K22" si="25">D17*R17</f>
         <v>0</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" ref="L17:L22" si="29">E17*R17</f>
-        <v>80</v>
+        <f t="shared" ref="L17:L22" si="26">E17*R17</f>
+        <v>32</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" ref="M17:M22" si="30">F17*R17</f>
-        <v>80</v>
+        <f t="shared" ref="M17:M22" si="27">F17*R17</f>
+        <v>32</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" ref="N17:N22" si="31">G17*R17</f>
+        <f t="shared" ref="N17:N22" si="28">G17*R17</f>
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" ref="O17:O22" si="32">H17*R17</f>
+        <f t="shared" ref="O17:O22" si="29">H17*R17</f>
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" ref="P17:P22" si="33">I17*R17</f>
-        <v>80</v>
+        <f t="shared" ref="P17:P22" si="30">I17*R17</f>
+        <v>32</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" ref="Q17:Q22" si="34">J17*R17</f>
-        <v>80</v>
+        <f t="shared" ref="Q17:Q22" si="31">J17*R17</f>
+        <v>32</v>
       </c>
       <c r="R17" s="2">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="S17" s="2">
         <v>20</v>
       </c>
       <c r="T17" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <f t="shared" si="18"/>
+        <v>640</v>
+      </c>
+      <c r="V17" s="9">
+        <f t="shared" si="19"/>
+        <v>640</v>
+      </c>
+      <c r="W17" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U17" s="9">
+      <c r="X17" s="2">
         <f t="shared" si="21"/>
-        <v>1600</v>
-      </c>
-      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="9">
         <f t="shared" si="22"/>
-        <v>1600</v>
-      </c>
-      <c r="W17" s="2">
+        <v>640</v>
+      </c>
+      <c r="Z17" s="9">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="2">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="9">
-        <f t="shared" si="25"/>
-        <v>1600</v>
-      </c>
-      <c r="Z17" s="9">
-        <f t="shared" si="26"/>
-        <v>1600</v>
+        <v>640</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="AB17" s="29"/>
     </row>
-    <row r="18" spans="1:27" ht="30" customHeight="1">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:28" ht="30" customHeight="1">
+      <c r="A18" s="16"/>
       <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="C18" s="24"/>
       <c r="D18" s="4"/>
       <c r="E18" s="3">
         <v>2</v>
@@ -1985,9 +2081,7 @@
       <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="3">
         <v>2</v>
@@ -1996,77 +2090,78 @@
         <v>2</v>
       </c>
       <c r="K18" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="27"/>
+        <v>32</v>
+      </c>
+      <c r="N18" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="L18" s="7">
+      <c r="O18" s="2">
         <f t="shared" si="29"/>
-        <v>80</v>
-      </c>
-      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
         <f t="shared" si="30"/>
-        <v>80</v>
-      </c>
-      <c r="N18" s="6">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="6">
         <f t="shared" si="31"/>
-        <v>80</v>
-      </c>
-      <c r="O18" s="2">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <f t="shared" si="33"/>
-        <v>80</v>
-      </c>
-      <c r="Q18" s="6">
-        <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="R18" s="2">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="R18" s="11">
+        <v>16</v>
       </c>
       <c r="S18" s="2">
         <v>20</v>
       </c>
       <c r="T18" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="shared" si="18"/>
+        <v>640</v>
+      </c>
+      <c r="V18" s="9">
+        <f t="shared" si="19"/>
+        <v>640</v>
+      </c>
+      <c r="W18" s="10">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U18" s="9">
+      <c r="X18" s="10">
         <f t="shared" si="21"/>
-        <v>1600</v>
-      </c>
-      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9">
         <f t="shared" si="22"/>
-        <v>1600</v>
-      </c>
-      <c r="W18" s="9">
+        <v>640</v>
+      </c>
+      <c r="Z18" s="9">
         <f t="shared" si="23"/>
-        <v>1600</v>
-      </c>
-      <c r="X18" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="9">
-        <f t="shared" si="25"/>
-        <v>1600</v>
-      </c>
-      <c r="Z18" s="9">
-        <f t="shared" si="26"/>
-        <v>1600</v>
+        <v>640</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="AB18" s="29"/>
     </row>
-    <row r="19" spans="1:27" ht="30" customHeight="1">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:28" ht="30" customHeight="1">
+      <c r="A19" s="16"/>
       <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="C19" s="25"/>
       <c r="D19" s="4"/>
       <c r="E19" s="3">
         <v>2</v>
@@ -2083,79 +2178,80 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="27"/>
+        <v>32</v>
+      </c>
+      <c r="N19" s="6">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
+        <v>32</v>
+      </c>
+      <c r="O19" s="6">
         <f t="shared" si="29"/>
-        <v>80</v>
-      </c>
-      <c r="M19" s="6">
+        <v>32</v>
+      </c>
+      <c r="P19" s="2">
         <f t="shared" si="30"/>
-        <v>80</v>
-      </c>
-      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
         <f t="shared" si="31"/>
-        <v>80</v>
-      </c>
-      <c r="O19" s="6">
-        <f t="shared" si="32"/>
-        <v>80</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="2">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>16</v>
       </c>
       <c r="S19" s="2">
         <v>20</v>
       </c>
       <c r="T19" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="shared" si="18"/>
+        <v>640</v>
+      </c>
+      <c r="V19" s="9">
+        <f t="shared" si="19"/>
+        <v>640</v>
+      </c>
+      <c r="W19" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="9">
+        <v>640</v>
+      </c>
+      <c r="X19" s="9">
         <f t="shared" si="21"/>
-        <v>1600</v>
-      </c>
-      <c r="V19" s="9">
+        <v>640</v>
+      </c>
+      <c r="Y19" s="2">
         <f t="shared" si="22"/>
-        <v>1600</v>
-      </c>
-      <c r="W19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2">
         <f t="shared" si="23"/>
-        <v>1600</v>
-      </c>
-      <c r="X19" s="9">
-        <f t="shared" si="24"/>
-        <v>1600</v>
-      </c>
-      <c r="Y19" s="2">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="2">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="AB19" s="29"/>
     </row>
-    <row r="20" spans="1:27" ht="30" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>35</v>
+    <row r="20" spans="1:28" ht="30" customHeight="1">
+      <c r="A20" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="C20" s="26"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3">
         <v>2</v>
@@ -2172,31 +2268,31 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="26"/>
+        <v>36</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="27"/>
+        <v>36</v>
+      </c>
+      <c r="N20" s="6">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
+        <v>36</v>
+      </c>
+      <c r="O20" s="6">
         <f t="shared" si="29"/>
         <v>36</v>
       </c>
-      <c r="M20" s="6">
+      <c r="P20" s="2">
         <f t="shared" si="30"/>
-        <v>36</v>
-      </c>
-      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
         <f t="shared" si="31"/>
-        <v>36</v>
-      </c>
-      <c r="O20" s="6">
-        <f t="shared" si="32"/>
-        <v>36</v>
-      </c>
-      <c r="P20" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R20" s="2">
@@ -2206,43 +2302,44 @@
         <v>20</v>
       </c>
       <c r="T20" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <f t="shared" si="18"/>
+        <v>720</v>
+      </c>
+      <c r="V20" s="9">
+        <f t="shared" si="19"/>
+        <v>720</v>
+      </c>
+      <c r="W20" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="9">
+        <v>720</v>
+      </c>
+      <c r="X20" s="9">
         <f t="shared" si="21"/>
         <v>720</v>
       </c>
-      <c r="V20" s="9">
+      <c r="Y20" s="2">
         <f t="shared" si="22"/>
-        <v>720</v>
-      </c>
-      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
         <f t="shared" si="23"/>
-        <v>720</v>
-      </c>
-      <c r="X20" s="9">
-        <f t="shared" si="24"/>
-        <v>720</v>
-      </c>
-      <c r="Y20" s="2">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AB20" s="29"/>
     </row>
-    <row r="21" spans="1:27" ht="30" customHeight="1">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:28" ht="30" customHeight="1">
+      <c r="A21" s="16"/>
       <c r="B21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="C21" s="27"/>
       <c r="D21" s="4"/>
       <c r="E21" s="3">
         <v>2</v>
@@ -2259,31 +2356,31 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="26"/>
+        <v>36</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="27"/>
+        <v>36</v>
+      </c>
+      <c r="N21" s="6">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
+        <v>36</v>
+      </c>
+      <c r="O21" s="6">
         <f t="shared" si="29"/>
         <v>36</v>
       </c>
-      <c r="M21" s="6">
+      <c r="P21" s="2">
         <f t="shared" si="30"/>
-        <v>36</v>
-      </c>
-      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
         <f t="shared" si="31"/>
-        <v>36</v>
-      </c>
-      <c r="O21" s="6">
-        <f t="shared" si="32"/>
-        <v>36</v>
-      </c>
-      <c r="P21" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
-        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R21" s="2">
@@ -2293,43 +2390,44 @@
         <v>20</v>
       </c>
       <c r="T21" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="9">
+        <f t="shared" si="18"/>
+        <v>720</v>
+      </c>
+      <c r="V21" s="9">
+        <f t="shared" si="19"/>
+        <v>720</v>
+      </c>
+      <c r="W21" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="9">
+        <v>720</v>
+      </c>
+      <c r="X21" s="9">
         <f t="shared" si="21"/>
         <v>720</v>
       </c>
-      <c r="V21" s="9">
+      <c r="Y21" s="2">
         <f t="shared" si="22"/>
-        <v>720</v>
-      </c>
-      <c r="W21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
         <f t="shared" si="23"/>
-        <v>720</v>
-      </c>
-      <c r="X21" s="9">
-        <f t="shared" si="24"/>
-        <v>720</v>
-      </c>
-      <c r="Y21" s="2">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="2">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AB21" s="29"/>
     </row>
-    <row r="22" spans="1:27" ht="30" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="26"/>
+    <row r="22" spans="1:28" ht="30" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="28"/>
       <c r="D22" s="4"/>
       <c r="E22" s="3">
         <v>2</v>
@@ -2346,31 +2444,31 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="26"/>
+        <v>36</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="27"/>
+        <v>36</v>
+      </c>
+      <c r="N22" s="6">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
+        <v>36</v>
+      </c>
+      <c r="O22" s="6">
         <f t="shared" si="29"/>
         <v>36</v>
       </c>
-      <c r="M22" s="6">
+      <c r="P22" s="2">
         <f t="shared" si="30"/>
-        <v>36</v>
-      </c>
-      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
         <f t="shared" si="31"/>
-        <v>36</v>
-      </c>
-      <c r="O22" s="6">
-        <f t="shared" si="32"/>
-        <v>36</v>
-      </c>
-      <c r="P22" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
-        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R22" s="2">
@@ -2380,39 +2478,41 @@
         <v>20</v>
       </c>
       <c r="T22" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <f t="shared" si="18"/>
+        <v>720</v>
+      </c>
+      <c r="V22" s="9">
+        <f t="shared" si="19"/>
+        <v>720</v>
+      </c>
+      <c r="W22" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="9">
+        <v>720</v>
+      </c>
+      <c r="X22" s="9">
         <f t="shared" si="21"/>
         <v>720</v>
       </c>
-      <c r="V22" s="9">
+      <c r="Y22" s="2">
         <f t="shared" si="22"/>
-        <v>720</v>
-      </c>
-      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
         <f t="shared" si="23"/>
-        <v>720</v>
-      </c>
-      <c r="X22" s="9">
-        <f t="shared" si="24"/>
-        <v>720</v>
-      </c>
-      <c r="Y22" s="2">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="2">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AB22" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
+    <mergeCell ref="AB5:AB16"/>
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="C11:C16"/>
     <mergeCell ref="C17:C19"/>
@@ -2423,7 +2523,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:AA1"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="T3:Z3"/>
@@ -2431,10 +2530,13 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="A2:AB2"/>
+    <mergeCell ref="AB3:AB4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
